--- a/業務経歴書.xlsx
+++ b/業務経歴書.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>作業
-No</t>
-  </si>
-  <si>
     <t>業務名</t>
   </si>
   <si>
@@ -464,6 +460,11 @@
     <rPh sb="2" eb="5">
       <t>ケイレキショ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>作業
+No</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -758,6 +759,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,36 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,7 +1115,7 @@
   <dimension ref="B1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="2" spans="2:25" ht="61.5" customHeight="1">
       <c r="B2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1208,20 +1209,20 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1244,11 +1245,11 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:25" ht="14.25" thickBot="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1270,20 +1271,20 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" ht="72">
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1306,20 +1307,20 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" ht="72">
-      <c r="B7" s="15">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>21</v>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1342,20 +1343,20 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="48">
-      <c r="B8" s="15">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>5</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1378,20 +1379,20 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="48">
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>8</v>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1414,20 +1415,20 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="36">
-      <c r="B10" s="15">
+      <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>20</v>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1450,11 +1451,11 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="14.25" thickBot="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1477,12 +1478,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/業務経歴書.xlsx
+++ b/業務経歴書.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\澤田\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C3416-F581-4B75-A9E0-106FFC89256A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="8595" windowHeight="5145"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="10706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>業務名</t>
   </si>
@@ -467,11 +473,68 @@
 No</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>製造業IT部門</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・AAEのTASKコマンドの使い方マニュアル作成。
+・AAEのTASK改善。
+・ドキュメント整備。
+・結合テストしてエビデンス作成。</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>マニュアル作成 → 初心者でも作業できるよう標準化。
+AAEを使ったRPAをできるようになった。</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2019.07～2019.08
+（2ヶ月）</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -542,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -737,6 +800,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,7 +833,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +878,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,13 +899,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,12 +919,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,7 +969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,9 +1002,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,6 +1054,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1111,21 +1246,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.3515625" customWidth="1"/>
+    <col min="2" max="2" width="5.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.64453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.76171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="7.5" customHeight="1">
@@ -1155,13 +1290,13 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="2:25" ht="61.5" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1209,19 +1344,19 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2"/>
@@ -1244,12 +1379,12 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="2:25" ht="14.25" thickBot="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+    <row r="5" spans="2:25" ht="13.35" thickBot="1">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1270,7 +1405,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="2:25" ht="72">
+    <row r="6" spans="2:25" ht="70">
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -1306,7 +1441,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="2:25" ht="72">
+    <row r="7" spans="2:25" ht="70">
       <c r="B7" s="9">
         <v>1</v>
       </c>
@@ -1342,7 +1477,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="2:25" ht="48">
+    <row r="8" spans="2:25" ht="46.7">
       <c r="B8" s="9">
         <v>2</v>
       </c>
@@ -1378,7 +1513,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="2:25" ht="48">
+    <row r="9" spans="2:25" ht="46.7">
       <c r="B9" s="9">
         <v>3</v>
       </c>
@@ -1414,7 +1549,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="2:25" ht="36">
+    <row r="10" spans="2:25" ht="35">
       <c r="B10" s="9">
         <v>4</v>
       </c>
@@ -1450,12 +1585,22 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="2:25" ht="14.25" thickBot="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+    <row r="11" spans="2:25" ht="61.7" customHeight="1">
+      <c r="B11" s="23">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1476,6 +1621,32 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
+    <row r="12" spans="2:25" ht="13.35" thickBot="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:F2"/>
@@ -1492,12 +1663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,12 +1676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
